--- a/xlsx/信息_intext.xlsx
+++ b/xlsx/信息_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="527">
   <si>
     <t>信息</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%8A%E6%81%AF</t>
   </si>
   <si>
-    <t>訊息</t>
-  </si>
-  <si>
-    <t>政策_政策_政治學_信息</t>
+    <t>讯息</t>
+  </si>
+  <si>
+    <t>政策_政策_政治学_信息</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E8%BF%9B%E5%88%B6</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%96%E7%89%87</t>
   </si>
   <si>
-    <t>圖片</t>
+    <t>图片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A9%E5%BA%A6</t>
@@ -95,19 +95,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%8A%9B%E5%AD%B8</t>
   </si>
   <si>
-    <t>熱力學</t>
+    <t>热力学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%8A%9B%E5%AD%B8%E7%8B%80%E6%85%8B</t>
   </si>
   <si>
-    <t>熱力學狀態</t>
+    <t>热力学状态</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E7%A2%BA%E5%AE%9A%E6%80%A7</t>
   </si>
   <si>
-    <t>不確定性</t>
+    <t>不确定性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%8D%E5%85%83</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%89%B9</t>
   </si>
   <si>
-    <t>納特</t>
+    <t>纳特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
@@ -185,9 +185,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E7%A1%AE%E5%AE%9A%E6%80%A7</t>
   </si>
   <si>
-    <t>不确定性</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8B%E7%89%A9</t>
   </si>
   <si>
@@ -245,7 +242,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AA%8D%E7%9F%A5%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>認知科學</t>
+    <t>认知科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9</t>
@@ -257,7 +254,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>系統</t>
+    <t>系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/DNA</t>
@@ -293,19 +290,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>物理學</t>
+    <t>物理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%90%84%E5%B8%83%C2%B7%E8%B2%9D%E8%82%AF%E6%96%AF%E5%9D%A6</t>
   </si>
   <si>
-    <t>雅各布·貝肯斯坦</t>
+    <t>雅各布·贝肯斯坦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E7%A2%BC%E7%89%A9%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>數碼物理學</t>
+    <t>数码物理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8F%E5%AD%90%E7%BA%A0%E7%BC%A0</t>
@@ -329,25 +326,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%82%8F%E8%BC%AF%E9%96%98</t>
   </si>
   <si>
-    <t>邏輯閘</t>
+    <t>逻辑闸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8A%E9%96%98</t>
   </si>
   <si>
-    <t>及閘</t>
+    <t>及闸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E9%96%98</t>
   </si>
   <si>
-    <t>非閘</t>
+    <t>非闸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8F%E5%AD%90%E9%9B%BB%E8%85%A6</t>
   </si>
   <si>
-    <t>量子電腦</t>
+    <t>量子电脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E5%AD%97%E8%8A%82</t>
@@ -365,13 +362,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E6%92%AD</t>
   </si>
   <si>
-    <t>廣播</t>
+    <t>广播</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E4%BF%A1</t>
   </si>
   <si>
-    <t>電信</t>
+    <t>电信</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Information_explosion</t>
@@ -395,7 +392,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E8%A8%8A%E8%BD%89%E4%BB%8B%E6%9C%8D%E5%8B%99</t>
   </si>
   <si>
-    <t>資訊轉介服務</t>
+    <t>资讯转介服务</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%BD%E8%B1%A1%E5%8C%96</t>
@@ -407,7 +404,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BA%96%E7%A2%BA%E8%88%87%E7%B2%BE%E5%AF%86</t>
   </si>
   <si>
-    <t>準確與精密</t>
+    <t>准确与精密</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8D%E6%9D%82</t>
@@ -425,13 +422,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A4%87%E9%9B%9C%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>複雜系統</t>
+    <t>复杂系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%84%B2%E5%AD%98%E8%A3%9D%E7%BD%AE</t>
   </si>
   <si>
-    <t>儲存裝置</t>
+    <t>储存装置</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Exformation</t>
@@ -461,7 +458,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E8%A8%8A%E6%9E%B6%E6%A7%8B</t>
   </si>
   <si>
-    <t>資訊架構</t>
+    <t>资讯架构</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Information_broker</t>
@@ -485,7 +482,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E4%BD%8D%E8%90%BD%E5%B7%AE</t>
   </si>
   <si>
-    <t>數位落差</t>
+    <t>数位落差</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Information_Infrastructure</t>
@@ -509,13 +506,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E8%A8%8A%E8%B6%85%E8%BC%89</t>
   </si>
   <si>
-    <t>資訊超載</t>
+    <t>资讯超载</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E8%A8%8A%E8%99%95%E7%90%86</t>
   </si>
   <si>
-    <t>資訊處理</t>
+    <t>资讯处理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Information_processor</t>
@@ -575,13 +572,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A0%90%E6%B8%AC</t>
   </si>
   <si>
-    <t>預測</t>
+    <t>预测</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%A3%E5%82%B3%E6%A8%A1%E5%BC%8F</t>
   </si>
   <si>
-    <t>宣傳模式</t>
+    <t>宣传模式</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8F%E5%AD%90%E4%BF%A1%E6%81%AF</t>
@@ -599,13 +596,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E8%81%AF</t>
   </si>
   <si>
-    <t>關聯</t>
+    <t>关联</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%9C%E8%A8%8A%E9%80%9A%E9%81%93%E7%B7%A8%E7%A2%BC%E5%AE%9A%E7%90%86</t>
   </si>
   <si>
-    <t>雜訊通道編碼定理</t>
+    <t>杂讯通道编码定理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Science_(journal)</t>
@@ -617,7 +614,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%A9%9E%E5%85%B8</t>
   </si>
   <si>
-    <t>維基詞典</t>
+    <t>维基词典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E6%8A%80%E6%9C%AF</t>
@@ -635,7 +632,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E6%A5%AD</t>
   </si>
   <si>
-    <t>農業</t>
+    <t>农业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%9C%E4%B8%9A%E5%B7%A5%E7%A8%8B</t>
@@ -647,7 +644,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E7%94%A2%E9%A4%8A%E6%AE%96</t>
   </si>
   <si>
-    <t>水產養殖</t>
+    <t>水产养殖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E4%BA%A7%E5%AD%A6</t>
@@ -659,7 +656,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E5%93%81%E5%8C%96%E5%AD%B8</t>
   </si>
   <si>
-    <t>食品化學</t>
+    <t>食品化学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E5%93%81%E5%B7%A5%E7%A8%8B</t>
@@ -725,13 +722,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%81%A5%E5%BA%B7%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>健康科學</t>
+    <t>健康科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E5%8C%96%E6%AA%A2%E9%A9%97</t>
   </si>
   <si>
-    <t>生化檢驗</t>
+    <t>生化检验</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%AF%E7%90%86%E5%AD%A6</t>
@@ -785,7 +782,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%BA%E7%AF%89</t>
   </si>
   <si>
-    <t>建築</t>
+    <t>建筑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E5%88%A9%E5%B7%A5%E7%A8%8B</t>
@@ -827,7 +824,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%90%E6%A7%8B%E5%B7%A5%E7%A8%8B</t>
   </si>
   <si>
-    <t>結構工程</t>
+    <t>结构工程</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E6%8A%80%E6%9C%AF</t>
@@ -899,31 +896,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BD%88%E8%97%A5</t>
   </si>
   <si>
-    <t>彈藥</t>
+    <t>弹药</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%82%B8%E5%BD%88</t>
   </si>
   <si>
-    <t>炸彈</t>
+    <t>炸弹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E6%8A%80%E8%A1%93</t>
   </si>
   <si>
-    <t>軍事技術</t>
+    <t>军事技术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%AD%90%E4%BD%9C%E6%88%B0</t>
   </si>
   <si>
-    <t>電子作戰</t>
+    <t>电子作战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%8E%E5%8F%AF%E5%81%B5%E6%B8%AC%E6%80%A7%E6%8A%80%E8%A1%93</t>
   </si>
   <si>
-    <t>低可偵測性技術</t>
+    <t>低可侦测性技术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%85%B5</t>
@@ -941,7 +938,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E7%AE%97%E6%A9%9F%E5%B7%A5%E7%A8%8B</t>
   </si>
   <si>
-    <t>計算機工程</t>
+    <t>计算机工程</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%A1%E7%AE%97%E6%9C%BA%E7%A7%91%E5%AD%A6</t>
@@ -977,7 +974,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E4%BB%B6%E5%B7%A5%E7%A8%8B</t>
   </si>
   <si>
-    <t>軟件工程</t>
+    <t>软件工程</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%B3%E4%B9%90%E6%8A%80%E6%9C%AF</t>
@@ -1073,7 +1070,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E6%A9%9F%E5%B7%A5%E7%A8%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>電機工程學</t>
+    <t>电机工程学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E5%AD%90%E5%B7%A5%E7%A8%8B</t>
@@ -1085,7 +1082,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E7%A8%8B%E6%8A%80%E8%A1%93</t>
   </si>
   <si>
-    <t>工程技術</t>
+    <t>工程技术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E7%A8%8B%E5%AD%A6</t>
@@ -1151,7 +1148,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%8B%E8%BC%B8%E5%B7%A5%E7%A8%8B</t>
   </si>
   <si>
-    <t>運輸工程</t>
+    <t>运输工程</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E5%8A%A8%E6%9C%BA%E6%A2%B0%E5%AD%A6</t>
@@ -1169,7 +1166,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A3%BD%E9%80%A0</t>
   </si>
   <si>
-    <t>製造</t>
+    <t>制造</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%BA%E6%A2%B0</t>
@@ -1247,13 +1244,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E7%A7%91%E6%8A%80</t>
   </si>
   <si>
-    <t>環境科技</t>
+    <t>环境科技</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E8%89%B2%E5%BB%BA%E7%AF%89</t>
   </si>
   <si>
-    <t>綠色建築</t>
+    <t>绿色建筑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E5%86%8D%E7%94%9F%E8%83%BD%E6%BA%90</t>
@@ -1265,7 +1262,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B8%E7%BA%8C%E8%A8%AD%E8%A8%88</t>
   </si>
   <si>
-    <t>永續設計</t>
+    <t>永续设计</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E5%B7%A5%E7%A8%8B</t>
@@ -1277,7 +1274,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%85%8B%E5%B7%A5%E7%A8%8B</t>
   </si>
   <si>
-    <t>生態工程</t>
+    <t>生态工程</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Clean_technology</t>
@@ -1301,7 +1298,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%87%89%E7%94%A8%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>應用科學</t>
+    <t>应用科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%83%E5%8F%A4</t>
@@ -1343,7 +1340,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>微系統</t>
+    <t>微系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E6%8A%80%E6%9C%AF</t>
@@ -1379,13 +1376,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%A4%8E%E8%A8%AD%E6%96%BD</t>
   </si>
   <si>
-    <t>基礎設施</t>
+    <t>基础设施</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E6%98%8E</t>
   </si>
   <si>
-    <t>發明</t>
+    <t>发明</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%91%E6%98%8E%E5%B9%B4%E8%A1%A8</t>
@@ -1397,13 +1394,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AD%98</t>
   </si>
   <si>
-    <t>知識</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E5%99%A8</t>
   </si>
   <si>
-    <t>機器</t>
+    <t>机器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%80%E8%83%BD</t>
@@ -1439,7 +1433,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>工業革命</t>
+    <t>工业革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E5%B7%A5%E4%B8%9A%E9%9D%A9%E5%91%BD</t>
@@ -1451,13 +1445,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E5%AD%97%E5%8C%96%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>數字化革命</t>
+    <t>数字化革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E6%AC%A1%E5%B7%A5%E6%A5%AD%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>第三次工業革命</t>
+    <t>第三次工业革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E6%81%AF%E6%97%B6%E4%BB%A3</t>
@@ -1511,7 +1505,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A0%B4%E5%A3%9E%E6%80%A7%E5%89%B5%E6%96%B0</t>
   </si>
   <si>
-    <t>破壞性創新</t>
+    <t>破坏性创新</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E7%A7%91%E6%8A%80</t>
@@ -1541,7 +1535,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8A%80%E8%A1%93%E5%AE%98%E5%83%9A</t>
   </si>
   <si>
-    <t>技術官僚</t>
+    <t>技术官僚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%80%E6%9C%AF%E5%A5%87%E5%BC%82%E7%82%B9</t>
@@ -1583,7 +1577,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%88%88%E6%8A%80%E8%A1%93%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>新興技術列表</t>
+    <t>新兴技术列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%B0%94%E8%BE%BE%E8%82%96%E5%A4%AB%E6%8C%87%E6%95%B0</t>
@@ -2755,7 +2749,7 @@
         <v>55</v>
       </c>
       <c r="F28" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="G28" t="n">
         <v>3</v>
@@ -2781,10 +2775,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>9</v>
@@ -2810,10 +2804,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>2</v>
@@ -2839,10 +2833,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -2868,10 +2862,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>4</v>
@@ -2897,10 +2891,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -2926,10 +2920,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2955,10 +2949,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>2</v>
@@ -2984,10 +2978,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>2</v>
@@ -3013,10 +3007,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>6</v>
@@ -3042,10 +3036,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -3071,10 +3065,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>13</v>
@@ -3100,10 +3094,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>12</v>
@@ -3129,10 +3123,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -3158,10 +3152,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -3187,10 +3181,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -3216,10 +3210,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -3245,10 +3239,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>2</v>
@@ -3274,10 +3268,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>3</v>
@@ -3303,10 +3297,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -3332,10 +3326,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -3361,10 +3355,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -3390,10 +3384,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -3419,10 +3413,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>3</v>
@@ -3448,10 +3442,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -3477,10 +3471,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>2</v>
@@ -3506,10 +3500,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>2</v>
@@ -3535,10 +3529,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3564,10 +3558,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>2</v>
@@ -3593,10 +3587,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>2</v>
@@ -3622,10 +3616,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3651,10 +3645,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3680,10 +3674,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3709,10 +3703,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>2</v>
@@ -3738,10 +3732,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>2</v>
@@ -3767,10 +3761,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3796,10 +3790,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
         <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>128</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3825,10 +3819,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" t="s">
         <v>129</v>
-      </c>
-      <c r="F65" t="s">
-        <v>130</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3854,10 +3848,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
         <v>131</v>
-      </c>
-      <c r="F66" t="s">
-        <v>132</v>
       </c>
       <c r="G66" t="n">
         <v>2</v>
@@ -3883,10 +3877,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" t="s">
         <v>133</v>
-      </c>
-      <c r="F67" t="s">
-        <v>134</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3912,10 +3906,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" t="s">
         <v>135</v>
-      </c>
-      <c r="F68" t="s">
-        <v>136</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3941,10 +3935,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" t="s">
         <v>137</v>
-      </c>
-      <c r="F69" t="s">
-        <v>138</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3970,10 +3964,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" t="s">
         <v>139</v>
-      </c>
-      <c r="F70" t="s">
-        <v>140</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3999,10 +3993,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>140</v>
+      </c>
+      <c r="F71" t="s">
         <v>141</v>
-      </c>
-      <c r="F71" t="s">
-        <v>142</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -4028,10 +4022,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72" t="s">
         <v>143</v>
-      </c>
-      <c r="F72" t="s">
-        <v>144</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -4057,10 +4051,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>144</v>
+      </c>
+      <c r="F73" t="s">
         <v>145</v>
-      </c>
-      <c r="F73" t="s">
-        <v>146</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -4086,10 +4080,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>146</v>
+      </c>
+      <c r="F74" t="s">
         <v>147</v>
-      </c>
-      <c r="F74" t="s">
-        <v>148</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -4115,10 +4109,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>148</v>
+      </c>
+      <c r="F75" t="s">
         <v>149</v>
-      </c>
-      <c r="F75" t="s">
-        <v>150</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4144,10 +4138,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>150</v>
+      </c>
+      <c r="F76" t="s">
         <v>151</v>
-      </c>
-      <c r="F76" t="s">
-        <v>152</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4202,10 +4196,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>152</v>
+      </c>
+      <c r="F78" t="s">
         <v>153</v>
-      </c>
-      <c r="F78" t="s">
-        <v>154</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -4231,10 +4225,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>154</v>
+      </c>
+      <c r="F79" t="s">
         <v>155</v>
-      </c>
-      <c r="F79" t="s">
-        <v>156</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4260,10 +4254,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>156</v>
+      </c>
+      <c r="F80" t="s">
         <v>157</v>
-      </c>
-      <c r="F80" t="s">
-        <v>158</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4289,10 +4283,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>158</v>
+      </c>
+      <c r="F81" t="s">
         <v>159</v>
-      </c>
-      <c r="F81" t="s">
-        <v>160</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4318,10 +4312,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>160</v>
+      </c>
+      <c r="F82" t="s">
         <v>161</v>
-      </c>
-      <c r="F82" t="s">
-        <v>162</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4347,10 +4341,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>162</v>
+      </c>
+      <c r="F83" t="s">
         <v>163</v>
-      </c>
-      <c r="F83" t="s">
-        <v>164</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4376,10 +4370,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>164</v>
+      </c>
+      <c r="F84" t="s">
         <v>165</v>
-      </c>
-      <c r="F84" t="s">
-        <v>166</v>
       </c>
       <c r="G84" t="n">
         <v>2</v>
@@ -4405,10 +4399,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>166</v>
+      </c>
+      <c r="F85" t="s">
         <v>167</v>
-      </c>
-      <c r="F85" t="s">
-        <v>168</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4434,10 +4428,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>168</v>
+      </c>
+      <c r="F86" t="s">
         <v>169</v>
-      </c>
-      <c r="F86" t="s">
-        <v>170</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4463,10 +4457,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>170</v>
+      </c>
+      <c r="F87" t="s">
         <v>171</v>
-      </c>
-      <c r="F87" t="s">
-        <v>172</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4492,10 +4486,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>172</v>
+      </c>
+      <c r="F88" t="s">
         <v>173</v>
-      </c>
-      <c r="F88" t="s">
-        <v>174</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4521,10 +4515,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>174</v>
+      </c>
+      <c r="F89" t="s">
         <v>175</v>
-      </c>
-      <c r="F89" t="s">
-        <v>176</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4550,10 +4544,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>176</v>
+      </c>
+      <c r="F90" t="s">
         <v>177</v>
-      </c>
-      <c r="F90" t="s">
-        <v>178</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4579,10 +4573,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>178</v>
+      </c>
+      <c r="F91" t="s">
         <v>179</v>
-      </c>
-      <c r="F91" t="s">
-        <v>180</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4608,10 +4602,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>180</v>
+      </c>
+      <c r="F92" t="s">
         <v>181</v>
-      </c>
-      <c r="F92" t="s">
-        <v>182</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4637,10 +4631,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>182</v>
+      </c>
+      <c r="F93" t="s">
         <v>183</v>
-      </c>
-      <c r="F93" t="s">
-        <v>184</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4666,10 +4660,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>184</v>
+      </c>
+      <c r="F94" t="s">
         <v>185</v>
-      </c>
-      <c r="F94" t="s">
-        <v>186</v>
       </c>
       <c r="G94" t="n">
         <v>2</v>
@@ -4695,10 +4689,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>186</v>
+      </c>
+      <c r="F95" t="s">
         <v>187</v>
-      </c>
-      <c r="F95" t="s">
-        <v>188</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4724,10 +4718,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>188</v>
+      </c>
+      <c r="F96" t="s">
         <v>189</v>
-      </c>
-      <c r="F96" t="s">
-        <v>190</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4753,10 +4747,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>190</v>
+      </c>
+      <c r="F97" t="s">
         <v>191</v>
-      </c>
-      <c r="F97" t="s">
-        <v>192</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4782,10 +4776,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>192</v>
+      </c>
+      <c r="F98" t="s">
         <v>193</v>
-      </c>
-      <c r="F98" t="s">
-        <v>194</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4811,10 +4805,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>194</v>
+      </c>
+      <c r="F99" t="s">
         <v>195</v>
-      </c>
-      <c r="F99" t="s">
-        <v>196</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4840,10 +4834,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>196</v>
+      </c>
+      <c r="F100" t="s">
         <v>197</v>
-      </c>
-      <c r="F100" t="s">
-        <v>198</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4869,10 +4863,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>198</v>
+      </c>
+      <c r="F101" t="s">
         <v>199</v>
-      </c>
-      <c r="F101" t="s">
-        <v>200</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4898,10 +4892,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>200</v>
+      </c>
+      <c r="F102" t="s">
         <v>201</v>
-      </c>
-      <c r="F102" t="s">
-        <v>202</v>
       </c>
       <c r="G102" t="n">
         <v>15</v>
@@ -4927,10 +4921,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>202</v>
+      </c>
+      <c r="F103" t="s">
         <v>203</v>
-      </c>
-      <c r="F103" t="s">
-        <v>204</v>
       </c>
       <c r="G103" t="n">
         <v>28</v>
@@ -4956,10 +4950,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>204</v>
+      </c>
+      <c r="F104" t="s">
         <v>205</v>
-      </c>
-      <c r="F104" t="s">
-        <v>206</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4985,10 +4979,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>206</v>
+      </c>
+      <c r="F105" t="s">
         <v>207</v>
-      </c>
-      <c r="F105" t="s">
-        <v>208</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5014,10 +5008,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>208</v>
+      </c>
+      <c r="F106" t="s">
         <v>209</v>
-      </c>
-      <c r="F106" t="s">
-        <v>210</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -5043,10 +5037,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>210</v>
+      </c>
+      <c r="F107" t="s">
         <v>211</v>
-      </c>
-      <c r="F107" t="s">
-        <v>212</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5072,10 +5066,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>212</v>
+      </c>
+      <c r="F108" t="s">
         <v>213</v>
-      </c>
-      <c r="F108" t="s">
-        <v>214</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5101,10 +5095,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>214</v>
+      </c>
+      <c r="F109" t="s">
         <v>215</v>
-      </c>
-      <c r="F109" t="s">
-        <v>216</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5130,10 +5124,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>216</v>
+      </c>
+      <c r="F110" t="s">
         <v>217</v>
-      </c>
-      <c r="F110" t="s">
-        <v>218</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5159,10 +5153,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>218</v>
+      </c>
+      <c r="F111" t="s">
         <v>219</v>
-      </c>
-      <c r="F111" t="s">
-        <v>220</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5188,10 +5182,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>220</v>
+      </c>
+      <c r="F112" t="s">
         <v>221</v>
-      </c>
-      <c r="F112" t="s">
-        <v>222</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5217,10 +5211,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>222</v>
+      </c>
+      <c r="F113" t="s">
         <v>223</v>
-      </c>
-      <c r="F113" t="s">
-        <v>224</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5246,10 +5240,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>224</v>
+      </c>
+      <c r="F114" t="s">
         <v>225</v>
-      </c>
-      <c r="F114" t="s">
-        <v>226</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5275,10 +5269,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>226</v>
+      </c>
+      <c r="F115" t="s">
         <v>227</v>
-      </c>
-      <c r="F115" t="s">
-        <v>228</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5304,10 +5298,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>228</v>
+      </c>
+      <c r="F116" t="s">
         <v>229</v>
-      </c>
-      <c r="F116" t="s">
-        <v>230</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5333,10 +5327,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>230</v>
+      </c>
+      <c r="F117" t="s">
         <v>231</v>
-      </c>
-      <c r="F117" t="s">
-        <v>232</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5362,10 +5356,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>232</v>
+      </c>
+      <c r="F118" t="s">
         <v>233</v>
-      </c>
-      <c r="F118" t="s">
-        <v>234</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5391,10 +5385,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>234</v>
+      </c>
+      <c r="F119" t="s">
         <v>235</v>
-      </c>
-      <c r="F119" t="s">
-        <v>236</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5420,10 +5414,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>236</v>
+      </c>
+      <c r="F120" t="s">
         <v>237</v>
-      </c>
-      <c r="F120" t="s">
-        <v>238</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5449,10 +5443,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>238</v>
+      </c>
+      <c r="F121" t="s">
         <v>239</v>
-      </c>
-      <c r="F121" t="s">
-        <v>240</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5478,10 +5472,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>240</v>
+      </c>
+      <c r="F122" t="s">
         <v>241</v>
-      </c>
-      <c r="F122" t="s">
-        <v>242</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5507,10 +5501,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>242</v>
+      </c>
+      <c r="F123" t="s">
         <v>243</v>
-      </c>
-      <c r="F123" t="s">
-        <v>244</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5536,10 +5530,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>244</v>
+      </c>
+      <c r="F124" t="s">
         <v>245</v>
-      </c>
-      <c r="F124" t="s">
-        <v>246</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5565,10 +5559,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>246</v>
+      </c>
+      <c r="F125" t="s">
         <v>247</v>
-      </c>
-      <c r="F125" t="s">
-        <v>248</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5594,10 +5588,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>248</v>
+      </c>
+      <c r="F126" t="s">
         <v>249</v>
-      </c>
-      <c r="F126" t="s">
-        <v>250</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5623,10 +5617,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>250</v>
+      </c>
+      <c r="F127" t="s">
         <v>251</v>
-      </c>
-      <c r="F127" t="s">
-        <v>252</v>
       </c>
       <c r="G127" t="n">
         <v>2</v>
@@ -5652,10 +5646,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>252</v>
+      </c>
+      <c r="F128" t="s">
         <v>253</v>
-      </c>
-      <c r="F128" t="s">
-        <v>254</v>
       </c>
       <c r="G128" t="n">
         <v>2</v>
@@ -5681,10 +5675,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>254</v>
+      </c>
+      <c r="F129" t="s">
         <v>255</v>
-      </c>
-      <c r="F129" t="s">
-        <v>256</v>
       </c>
       <c r="G129" t="n">
         <v>4</v>
@@ -5710,10 +5704,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>256</v>
+      </c>
+      <c r="F130" t="s">
         <v>257</v>
-      </c>
-      <c r="F130" t="s">
-        <v>258</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5739,10 +5733,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>258</v>
+      </c>
+      <c r="F131" t="s">
         <v>259</v>
-      </c>
-      <c r="F131" t="s">
-        <v>260</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5768,10 +5762,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>260</v>
+      </c>
+      <c r="F132" t="s">
         <v>261</v>
-      </c>
-      <c r="F132" t="s">
-        <v>262</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5797,10 +5791,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>262</v>
+      </c>
+      <c r="F133" t="s">
         <v>263</v>
-      </c>
-      <c r="F133" t="s">
-        <v>264</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5826,10 +5820,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>264</v>
+      </c>
+      <c r="F134" t="s">
         <v>265</v>
-      </c>
-      <c r="F134" t="s">
-        <v>266</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5855,10 +5849,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>266</v>
+      </c>
+      <c r="F135" t="s">
         <v>267</v>
-      </c>
-      <c r="F135" t="s">
-        <v>268</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5884,10 +5878,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>268</v>
+      </c>
+      <c r="F136" t="s">
         <v>269</v>
-      </c>
-      <c r="F136" t="s">
-        <v>270</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5913,10 +5907,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>270</v>
+      </c>
+      <c r="F137" t="s">
         <v>271</v>
-      </c>
-      <c r="F137" t="s">
-        <v>272</v>
       </c>
       <c r="G137" t="n">
         <v>2</v>
@@ -5942,10 +5936,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>272</v>
+      </c>
+      <c r="F138" t="s">
         <v>273</v>
-      </c>
-      <c r="F138" t="s">
-        <v>274</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5971,10 +5965,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>274</v>
+      </c>
+      <c r="F139" t="s">
         <v>275</v>
-      </c>
-      <c r="F139" t="s">
-        <v>276</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6000,10 +5994,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>276</v>
+      </c>
+      <c r="F140" t="s">
         <v>277</v>
-      </c>
-      <c r="F140" t="s">
-        <v>278</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6029,10 +6023,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>278</v>
+      </c>
+      <c r="F141" t="s">
         <v>279</v>
-      </c>
-      <c r="F141" t="s">
-        <v>280</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6058,10 +6052,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>280</v>
+      </c>
+      <c r="F142" t="s">
         <v>281</v>
-      </c>
-      <c r="F142" t="s">
-        <v>282</v>
       </c>
       <c r="G142" t="n">
         <v>2</v>
@@ -6087,10 +6081,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>282</v>
+      </c>
+      <c r="F143" t="s">
         <v>283</v>
-      </c>
-      <c r="F143" t="s">
-        <v>284</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6116,10 +6110,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>284</v>
+      </c>
+      <c r="F144" t="s">
         <v>285</v>
-      </c>
-      <c r="F144" t="s">
-        <v>286</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6145,10 +6139,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>286</v>
+      </c>
+      <c r="F145" t="s">
         <v>287</v>
-      </c>
-      <c r="F145" t="s">
-        <v>288</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6174,10 +6168,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>288</v>
+      </c>
+      <c r="F146" t="s">
         <v>289</v>
-      </c>
-      <c r="F146" t="s">
-        <v>290</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6203,10 +6197,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>290</v>
+      </c>
+      <c r="F147" t="s">
         <v>291</v>
-      </c>
-      <c r="F147" t="s">
-        <v>292</v>
       </c>
       <c r="G147" t="n">
         <v>2</v>
@@ -6232,10 +6226,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>292</v>
+      </c>
+      <c r="F148" t="s">
         <v>293</v>
-      </c>
-      <c r="F148" t="s">
-        <v>294</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6261,10 +6255,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>294</v>
+      </c>
+      <c r="F149" t="s">
         <v>295</v>
-      </c>
-      <c r="F149" t="s">
-        <v>296</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6290,10 +6284,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>296</v>
+      </c>
+      <c r="F150" t="s">
         <v>297</v>
-      </c>
-      <c r="F150" t="s">
-        <v>298</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6319,10 +6313,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>298</v>
+      </c>
+      <c r="F151" t="s">
         <v>299</v>
-      </c>
-      <c r="F151" t="s">
-        <v>300</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6348,10 +6342,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>300</v>
+      </c>
+      <c r="F152" t="s">
         <v>301</v>
-      </c>
-      <c r="F152" t="s">
-        <v>302</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6377,10 +6371,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>302</v>
+      </c>
+      <c r="F153" t="s">
         <v>303</v>
-      </c>
-      <c r="F153" t="s">
-        <v>304</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6406,10 +6400,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>304</v>
+      </c>
+      <c r="F154" t="s">
         <v>305</v>
-      </c>
-      <c r="F154" t="s">
-        <v>306</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6435,10 +6429,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>306</v>
+      </c>
+      <c r="F155" t="s">
         <v>307</v>
-      </c>
-      <c r="F155" t="s">
-        <v>308</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6464,10 +6458,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>308</v>
+      </c>
+      <c r="F156" t="s">
         <v>309</v>
-      </c>
-      <c r="F156" t="s">
-        <v>310</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6493,10 +6487,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>310</v>
+      </c>
+      <c r="F157" t="s">
         <v>311</v>
-      </c>
-      <c r="F157" t="s">
-        <v>312</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6522,10 +6516,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>312</v>
+      </c>
+      <c r="F158" t="s">
         <v>313</v>
-      </c>
-      <c r="F158" t="s">
-        <v>314</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6551,10 +6545,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>314</v>
+      </c>
+      <c r="F159" t="s">
         <v>315</v>
-      </c>
-      <c r="F159" t="s">
-        <v>316</v>
       </c>
       <c r="G159" t="n">
         <v>6</v>
@@ -6580,10 +6574,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>316</v>
+      </c>
+      <c r="F160" t="s">
         <v>317</v>
-      </c>
-      <c r="F160" t="s">
-        <v>318</v>
       </c>
       <c r="G160" t="n">
         <v>2</v>
@@ -6609,10 +6603,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>318</v>
+      </c>
+      <c r="F161" t="s">
         <v>319</v>
-      </c>
-      <c r="F161" t="s">
-        <v>320</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6638,10 +6632,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>320</v>
+      </c>
+      <c r="F162" t="s">
         <v>321</v>
-      </c>
-      <c r="F162" t="s">
-        <v>322</v>
       </c>
       <c r="G162" t="n">
         <v>2</v>
@@ -6667,10 +6661,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>322</v>
+      </c>
+      <c r="F163" t="s">
         <v>323</v>
-      </c>
-      <c r="F163" t="s">
-        <v>324</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6696,10 +6690,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>324</v>
+      </c>
+      <c r="F164" t="s">
         <v>325</v>
-      </c>
-      <c r="F164" t="s">
-        <v>326</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6725,10 +6719,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>326</v>
+      </c>
+      <c r="F165" t="s">
         <v>327</v>
-      </c>
-      <c r="F165" t="s">
-        <v>328</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6754,10 +6748,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>328</v>
+      </c>
+      <c r="F166" t="s">
         <v>329</v>
-      </c>
-      <c r="F166" t="s">
-        <v>330</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6783,10 +6777,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>330</v>
+      </c>
+      <c r="F167" t="s">
         <v>331</v>
-      </c>
-      <c r="F167" t="s">
-        <v>332</v>
       </c>
       <c r="G167" t="n">
         <v>3</v>
@@ -6812,10 +6806,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>332</v>
+      </c>
+      <c r="F168" t="s">
         <v>333</v>
-      </c>
-      <c r="F168" t="s">
-        <v>334</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6841,10 +6835,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>334</v>
+      </c>
+      <c r="F169" t="s">
         <v>335</v>
-      </c>
-      <c r="F169" t="s">
-        <v>336</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6870,10 +6864,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>336</v>
+      </c>
+      <c r="F170" t="s">
         <v>337</v>
-      </c>
-      <c r="F170" t="s">
-        <v>338</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6899,10 +6893,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>338</v>
+      </c>
+      <c r="F171" t="s">
         <v>339</v>
-      </c>
-      <c r="F171" t="s">
-        <v>340</v>
       </c>
       <c r="G171" t="n">
         <v>2</v>
@@ -6928,10 +6922,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>340</v>
+      </c>
+      <c r="F172" t="s">
         <v>341</v>
-      </c>
-      <c r="F172" t="s">
-        <v>342</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6957,10 +6951,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>342</v>
+      </c>
+      <c r="F173" t="s">
         <v>343</v>
-      </c>
-      <c r="F173" t="s">
-        <v>344</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6986,10 +6980,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>344</v>
+      </c>
+      <c r="F174" t="s">
         <v>345</v>
-      </c>
-      <c r="F174" t="s">
-        <v>346</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7015,10 +7009,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>346</v>
+      </c>
+      <c r="F175" t="s">
         <v>347</v>
-      </c>
-      <c r="F175" t="s">
-        <v>348</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7044,10 +7038,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>348</v>
+      </c>
+      <c r="F176" t="s">
         <v>349</v>
-      </c>
-      <c r="F176" t="s">
-        <v>350</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7073,10 +7067,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>350</v>
+      </c>
+      <c r="F177" t="s">
         <v>351</v>
-      </c>
-      <c r="F177" t="s">
-        <v>352</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7102,10 +7096,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>352</v>
+      </c>
+      <c r="F178" t="s">
         <v>353</v>
-      </c>
-      <c r="F178" t="s">
-        <v>354</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7131,10 +7125,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>354</v>
+      </c>
+      <c r="F179" t="s">
         <v>355</v>
-      </c>
-      <c r="F179" t="s">
-        <v>356</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7160,10 +7154,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>356</v>
+      </c>
+      <c r="F180" t="s">
         <v>357</v>
-      </c>
-      <c r="F180" t="s">
-        <v>358</v>
       </c>
       <c r="G180" t="n">
         <v>5</v>
@@ -7189,10 +7183,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>358</v>
+      </c>
+      <c r="F181" t="s">
         <v>359</v>
-      </c>
-      <c r="F181" t="s">
-        <v>360</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7218,10 +7212,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>360</v>
+      </c>
+      <c r="F182" t="s">
         <v>361</v>
-      </c>
-      <c r="F182" t="s">
-        <v>362</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7247,10 +7241,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>362</v>
+      </c>
+      <c r="F183" t="s">
         <v>363</v>
-      </c>
-      <c r="F183" t="s">
-        <v>364</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7276,10 +7270,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>364</v>
+      </c>
+      <c r="F184" t="s">
         <v>365</v>
-      </c>
-      <c r="F184" t="s">
-        <v>366</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7305,10 +7299,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>366</v>
+      </c>
+      <c r="F185" t="s">
         <v>367</v>
-      </c>
-      <c r="F185" t="s">
-        <v>368</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7334,10 +7328,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>368</v>
+      </c>
+      <c r="F186" t="s">
         <v>369</v>
-      </c>
-      <c r="F186" t="s">
-        <v>370</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7363,10 +7357,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>370</v>
+      </c>
+      <c r="F187" t="s">
         <v>371</v>
-      </c>
-      <c r="F187" t="s">
-        <v>372</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7392,10 +7386,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>372</v>
+      </c>
+      <c r="F188" t="s">
         <v>373</v>
-      </c>
-      <c r="F188" t="s">
-        <v>374</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7421,10 +7415,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>374</v>
+      </c>
+      <c r="F189" t="s">
         <v>375</v>
-      </c>
-      <c r="F189" t="s">
-        <v>376</v>
       </c>
       <c r="G189" t="n">
         <v>2</v>
@@ -7450,10 +7444,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>376</v>
+      </c>
+      <c r="F190" t="s">
         <v>377</v>
-      </c>
-      <c r="F190" t="s">
-        <v>378</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7479,10 +7473,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>378</v>
+      </c>
+      <c r="F191" t="s">
         <v>379</v>
-      </c>
-      <c r="F191" t="s">
-        <v>380</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7508,10 +7502,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
+        <v>380</v>
+      </c>
+      <c r="F192" t="s">
         <v>381</v>
-      </c>
-      <c r="F192" t="s">
-        <v>382</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7537,10 +7531,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>382</v>
+      </c>
+      <c r="F193" t="s">
         <v>383</v>
-      </c>
-      <c r="F193" t="s">
-        <v>384</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7566,10 +7560,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
+        <v>384</v>
+      </c>
+      <c r="F194" t="s">
         <v>385</v>
-      </c>
-      <c r="F194" t="s">
-        <v>386</v>
       </c>
       <c r="G194" t="n">
         <v>4</v>
@@ -7595,10 +7589,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
+        <v>386</v>
+      </c>
+      <c r="F195" t="s">
         <v>387</v>
-      </c>
-      <c r="F195" t="s">
-        <v>388</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7624,10 +7618,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
+        <v>388</v>
+      </c>
+      <c r="F196" t="s">
         <v>389</v>
-      </c>
-      <c r="F196" t="s">
-        <v>390</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7653,10 +7647,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
+        <v>390</v>
+      </c>
+      <c r="F197" t="s">
         <v>391</v>
-      </c>
-      <c r="F197" t="s">
-        <v>392</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7682,10 +7676,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
+        <v>392</v>
+      </c>
+      <c r="F198" t="s">
         <v>393</v>
-      </c>
-      <c r="F198" t="s">
-        <v>394</v>
       </c>
       <c r="G198" t="n">
         <v>2</v>
@@ -7711,10 +7705,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
+        <v>394</v>
+      </c>
+      <c r="F199" t="s">
         <v>395</v>
-      </c>
-      <c r="F199" t="s">
-        <v>396</v>
       </c>
       <c r="G199" t="n">
         <v>2</v>
@@ -7740,10 +7734,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
+        <v>396</v>
+      </c>
+      <c r="F200" t="s">
         <v>397</v>
-      </c>
-      <c r="F200" t="s">
-        <v>398</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7769,10 +7763,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
+        <v>398</v>
+      </c>
+      <c r="F201" t="s">
         <v>399</v>
-      </c>
-      <c r="F201" t="s">
-        <v>400</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7798,10 +7792,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
+        <v>400</v>
+      </c>
+      <c r="F202" t="s">
         <v>401</v>
-      </c>
-      <c r="F202" t="s">
-        <v>402</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7827,10 +7821,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
+        <v>402</v>
+      </c>
+      <c r="F203" t="s">
         <v>403</v>
-      </c>
-      <c r="F203" t="s">
-        <v>404</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7856,10 +7850,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
+        <v>404</v>
+      </c>
+      <c r="F204" t="s">
         <v>405</v>
-      </c>
-      <c r="F204" t="s">
-        <v>406</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7885,10 +7879,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
+        <v>406</v>
+      </c>
+      <c r="F205" t="s">
         <v>407</v>
-      </c>
-      <c r="F205" t="s">
-        <v>408</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7914,10 +7908,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
+        <v>408</v>
+      </c>
+      <c r="F206" t="s">
         <v>409</v>
-      </c>
-      <c r="F206" t="s">
-        <v>410</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7943,10 +7937,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
+        <v>410</v>
+      </c>
+      <c r="F207" t="s">
         <v>411</v>
-      </c>
-      <c r="F207" t="s">
-        <v>412</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7972,10 +7966,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
+        <v>412</v>
+      </c>
+      <c r="F208" t="s">
         <v>413</v>
-      </c>
-      <c r="F208" t="s">
-        <v>414</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8001,10 +7995,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
+        <v>414</v>
+      </c>
+      <c r="F209" t="s">
         <v>415</v>
-      </c>
-      <c r="F209" t="s">
-        <v>416</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8030,10 +8024,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
+        <v>416</v>
+      </c>
+      <c r="F210" t="s">
         <v>417</v>
-      </c>
-      <c r="F210" t="s">
-        <v>418</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8059,10 +8053,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
+        <v>418</v>
+      </c>
+      <c r="F211" t="s">
         <v>419</v>
-      </c>
-      <c r="F211" t="s">
-        <v>420</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8088,10 +8082,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
+        <v>420</v>
+      </c>
+      <c r="F212" t="s">
         <v>421</v>
-      </c>
-      <c r="F212" t="s">
-        <v>422</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8117,10 +8111,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
+        <v>422</v>
+      </c>
+      <c r="F213" t="s">
         <v>423</v>
-      </c>
-      <c r="F213" t="s">
-        <v>424</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8146,10 +8140,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
+        <v>424</v>
+      </c>
+      <c r="F214" t="s">
         <v>425</v>
-      </c>
-      <c r="F214" t="s">
-        <v>426</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8175,10 +8169,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
+        <v>426</v>
+      </c>
+      <c r="F215" t="s">
         <v>427</v>
-      </c>
-      <c r="F215" t="s">
-        <v>428</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8204,10 +8198,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
+        <v>428</v>
+      </c>
+      <c r="F216" t="s">
         <v>429</v>
-      </c>
-      <c r="F216" t="s">
-        <v>430</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8233,10 +8227,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
+        <v>430</v>
+      </c>
+      <c r="F217" t="s">
         <v>431</v>
-      </c>
-      <c r="F217" t="s">
-        <v>432</v>
       </c>
       <c r="G217" t="n">
         <v>2</v>
@@ -8262,10 +8256,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
+        <v>432</v>
+      </c>
+      <c r="F218" t="s">
         <v>433</v>
-      </c>
-      <c r="F218" t="s">
-        <v>434</v>
       </c>
       <c r="G218" t="n">
         <v>2</v>
@@ -8291,10 +8285,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
+        <v>434</v>
+      </c>
+      <c r="F219" t="s">
         <v>435</v>
-      </c>
-      <c r="F219" t="s">
-        <v>436</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8320,10 +8314,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
+        <v>436</v>
+      </c>
+      <c r="F220" t="s">
         <v>437</v>
-      </c>
-      <c r="F220" t="s">
-        <v>438</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8349,10 +8343,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
+        <v>438</v>
+      </c>
+      <c r="F221" t="s">
         <v>439</v>
-      </c>
-      <c r="F221" t="s">
-        <v>440</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8378,10 +8372,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
+        <v>440</v>
+      </c>
+      <c r="F222" t="s">
         <v>441</v>
-      </c>
-      <c r="F222" t="s">
-        <v>442</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8407,10 +8401,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
+        <v>442</v>
+      </c>
+      <c r="F223" t="s">
         <v>443</v>
-      </c>
-      <c r="F223" t="s">
-        <v>444</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8436,10 +8430,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
+        <v>444</v>
+      </c>
+      <c r="F224" t="s">
         <v>445</v>
-      </c>
-      <c r="F224" t="s">
-        <v>446</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8465,10 +8459,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
+        <v>446</v>
+      </c>
+      <c r="F225" t="s">
         <v>447</v>
-      </c>
-      <c r="F225" t="s">
-        <v>448</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8494,10 +8488,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
+        <v>366</v>
+      </c>
+      <c r="F226" t="s">
         <v>367</v>
-      </c>
-      <c r="F226" t="s">
-        <v>368</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8523,10 +8517,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
+        <v>448</v>
+      </c>
+      <c r="F227" t="s">
         <v>449</v>
-      </c>
-      <c r="F227" t="s">
-        <v>450</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8552,10 +8546,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
+        <v>450</v>
+      </c>
+      <c r="F228" t="s">
         <v>451</v>
-      </c>
-      <c r="F228" t="s">
-        <v>452</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8581,10 +8575,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
+        <v>452</v>
+      </c>
+      <c r="F229" t="s">
         <v>453</v>
-      </c>
-      <c r="F229" t="s">
-        <v>454</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8610,10 +8604,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
+        <v>454</v>
+      </c>
+      <c r="F230" t="s">
         <v>455</v>
-      </c>
-      <c r="F230" t="s">
-        <v>456</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8639,10 +8633,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
+        <v>456</v>
+      </c>
+      <c r="F231" t="s">
         <v>457</v>
-      </c>
-      <c r="F231" t="s">
-        <v>458</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8668,10 +8662,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F232" t="s">
-        <v>460</v>
+        <v>73</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8697,10 +8691,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F233" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8726,10 +8720,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F234" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -8755,10 +8749,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F235" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G235" t="n">
         <v>2</v>
@@ -8784,10 +8778,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F236" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G236" t="n">
         <v>3</v>
@@ -8813,10 +8807,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F237" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -8842,10 +8836,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F238" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -8871,10 +8865,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F239" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G239" t="n">
         <v>3</v>
@@ -8900,10 +8894,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F240" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -8929,10 +8923,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F241" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -8958,10 +8952,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F242" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -8987,10 +8981,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F243" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9016,10 +9010,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F244" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9045,10 +9039,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F245" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9074,10 +9068,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F246" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9103,10 +9097,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F247" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9132,10 +9126,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F248" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9161,10 +9155,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F249" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9190,10 +9184,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F250" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9219,10 +9213,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F251" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9248,10 +9242,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F252" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9277,10 +9271,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F253" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9306,10 +9300,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F254" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9335,10 +9329,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F255" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9364,10 +9358,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F256" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9393,10 +9387,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F257" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9422,10 +9416,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F258" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9451,10 +9445,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F259" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9480,10 +9474,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F260" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9509,10 +9503,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F261" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -9538,10 +9532,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F262" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -9567,10 +9561,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F263" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -9596,10 +9590,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F264" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -9625,10 +9619,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F265" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -9654,10 +9648,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F266" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>

--- a/xlsx/信息_intext.xlsx
+++ b/xlsx/信息_intext.xlsx
@@ -29,7 +29,7 @@
     <t>訊息</t>
   </si>
   <si>
-    <t>政策_政策_政治學_信息</t>
+    <t>体育运动_体育运动_技术_信息</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E8%BF%9B%E5%88%B6</t>
